--- a/Documentation/comparison of various threads.xlsx
+++ b/Documentation/comparison of various threads.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Drive\Curriculam\Alda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Drive\projects\Multi-temporal-Classification-of-satellite-images\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,6 +102,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Actual time vs expected</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -163,33 +193,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>16</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>32</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>64</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$8</c:f>
@@ -197,25 +200,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2869.12999988</c:v>
+                  <c:v>2143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2178.6530001199999</c:v>
+                  <c:v>1493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1965.60899997</c:v>
+                  <c:v>1329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1585.48000002</c:v>
+                  <c:v>1107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1127.3360001999999</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>458.51799988699997</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240.023000002</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -223,7 +226,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-413C-4D4C-9251-D275AE24D91A}"/>
+              <c16:uniqueId val="{00000000-3499-4C02-A3C8-10EE5A364435}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -253,33 +256,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>16</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>32</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>64</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$8</c:f>
@@ -287,25 +263,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2869</c:v>
+                  <c:v>2143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1434.5</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>717.25</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>358.625</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>179.315</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.84</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -313,7 +289,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-413C-4D4C-9251-D275AE24D91A}"/>
+              <c16:uniqueId val="{00000001-3499-4C02-A3C8-10EE5A364435}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -326,111 +302,71 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="390727552"/>
-        <c:axId val="395450456"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:v>thread</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numLit>
-                    <c:formatCode>General</c:formatCode>
-                    <c:ptCount val="7"/>
-                    <c:pt idx="0">
-                      <c:v>1</c:v>
-                    </c:pt>
-                    <c:pt idx="1">
-                      <c:v>2</c:v>
-                    </c:pt>
-                    <c:pt idx="2">
-                      <c:v>4</c:v>
-                    </c:pt>
-                    <c:pt idx="3">
-                      <c:v>8</c:v>
-                    </c:pt>
-                    <c:pt idx="4">
-                      <c:v>16</c:v>
-                    </c:pt>
-                    <c:pt idx="5">
-                      <c:v>32</c:v>
-                    </c:pt>
-                    <c:pt idx="6">
-                      <c:v>64</c:v>
-                    </c:pt>
-                  </c:numLit>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-413C-4D4C-9251-D275AE24D91A}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="381028512"/>
+        <c:axId val="381029824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="390727552"/>
+        <c:axId val="381028512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -467,7 +403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395450456"/>
+        <c:crossAx val="381029824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -475,7 +411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395450456"/>
+        <c:axId val="381029824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,6 +431,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time(seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -526,7 +517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390727552"/>
+        <c:crossAx val="381028512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1166,23 +1157,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221E3300-3BC8-419F-8C4E-DA2912B6784F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82A108C-CE45-4F27-B91C-1C1F47D73328}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,10 +1494,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1524,10 +1519,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2869.12999988</v>
+        <v>2143</v>
       </c>
       <c r="C2">
-        <v>2869</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1535,10 +1530,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2178.6530001199999</v>
+        <v>1493</v>
       </c>
       <c r="C3">
-        <v>1434.5</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1546,10 +1541,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1965.60899997</v>
+        <v>1329</v>
       </c>
       <c r="C4">
-        <v>717.25</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1557,10 +1552,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1585.48000002</v>
+        <v>1107</v>
       </c>
       <c r="C5">
-        <v>358.625</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1568,10 +1563,10 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>1127.3360001999999</v>
+        <v>800</v>
       </c>
       <c r="C6">
-        <v>179.315</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1579,10 +1574,10 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>458.51799988699997</v>
+        <v>530</v>
       </c>
       <c r="C7">
-        <v>89.65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1590,10 +1585,10 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>240.023000002</v>
+        <v>339</v>
       </c>
       <c r="C8">
-        <v>44.84</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
